--- a/Hmw_tables/physique .xlsx
+++ b/Hmw_tables/physique .xlsx
@@ -135,7 +135,7 @@
       <alignment horizontal="justify"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify"/>
